--- a/Pallonhallinta2324.xlsx
+++ b/Pallonhallinta2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaainoa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B60F6F-993E-EA42-B85E-256B5C8E9086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{481A7E8C-93BE-D74D-8486-4F3949A3CC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34700" yWindow="2540" windowWidth="28420" windowHeight="16020" xr2:uid="{B801796A-86FB-C44D-803A-4A0651E654A7}"/>
   </bookViews>
@@ -119,6 +119,9 @@
     <t>55.3</t>
   </si>
   <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
     <t>50.3</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t>44.3</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
     <t>Squad</t>
   </si>
   <si>
@@ -206,16 +212,10 @@
     <t>Celta</t>
   </si>
   <si>
-    <t>Sevlla</t>
-  </si>
-  <si>
     <t>Sociedad</t>
   </si>
   <si>
     <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Villareal</t>
   </si>
 </sst>
 </file>
@@ -626,23 +626,23 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:O26"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2">
         <v>30</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -705,7 +705,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2">
         <v>35</v>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -741,7 +741,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>27</v>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2">
         <v>27</v>
@@ -786,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
@@ -812,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2">
         <v>34</v>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
@@ -944,7 +944,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2">
         <v>31</v>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
@@ -1047,7 +1047,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
@@ -1094,7 +1094,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
@@ -1141,7 +1141,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
@@ -1235,7 +1235,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
@@ -1282,7 +1282,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>27</v>
@@ -1329,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2">
         <v>31</v>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
@@ -1461,16 +1461,16 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="2"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2">
         <v>32</v>
